--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -1,133 +1,153 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rahimi\OneDrive - Université Mohammed VI Polytechnique\python_projects\Statistical_tasks\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5598D044-4B16-4C31-A735-9D3DF3F4AA80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="conductivity" sheetId="1" r:id="rId1"/>
+    <sheet name="conductivity" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="cat_univar" sheetId="2" state="visible" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>LC2A</t>
-  </si>
-  <si>
-    <t>MP2</t>
-  </si>
-  <si>
-    <t>MP1</t>
-  </si>
-  <si>
-    <t>MC</t>
-  </si>
-  <si>
-    <t>22/10/2025 18:00</t>
-  </si>
-  <si>
-    <t>22/10/2025 20:00</t>
-  </si>
-  <si>
-    <t>22/10/2025 22:30</t>
-  </si>
-  <si>
-    <t>23/10/2025 01:00</t>
-  </si>
-  <si>
-    <t>23/10/2025 04:00</t>
-  </si>
-  <si>
-    <t>23/10/2025 07:00</t>
-  </si>
-  <si>
-    <t>23/10/2025 11:00</t>
-  </si>
-  <si>
-    <t>23/10/2025 13:00</t>
-  </si>
-  <si>
-    <t>23/10/2025 15:00</t>
-  </si>
-  <si>
-    <t>23/10/2025 17:00</t>
-  </si>
-  <si>
-    <t>23/10/2025 20:00</t>
-  </si>
-  <si>
-    <t>23/10/2025 22:30</t>
-  </si>
-  <si>
-    <t>24/10/2025 01:00</t>
-  </si>
-  <si>
-    <t>24/10/2025 04:00</t>
-  </si>
-  <si>
-    <t>24/10/2025 07:00</t>
-  </si>
-  <si>
-    <t>24/10/2025 11:00</t>
-  </si>
-  <si>
-    <t>24/10/2025 13:00</t>
-  </si>
-  <si>
-    <t>24/10/2025 15:00</t>
-  </si>
-  <si>
-    <t>24/10/2025 17:00</t>
-  </si>
-  <si>
-    <t>24/10/2025 20:00</t>
-  </si>
-  <si>
-    <t>24/10/2025 22:30</t>
-  </si>
-  <si>
-    <t>25/10/2025 01:00</t>
-  </si>
-  <si>
-    <t>25/10/2025 04:00</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+  <si>
+    <t xml:space="preserve">Date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LC2A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MP2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MP1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22/10/2025 18:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22/10/2025 20:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22/10/2025 22:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23/10/2025 01:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23/10/2025 04:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23/10/2025 07:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23/10/2025 11:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23/10/2025 13:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23/10/2025 15:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23/10/2025 17:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23/10/2025 20:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23/10/2025 22:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24/10/2025 01:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24/10/2025 04:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24/10/2025 07:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24/10/2025 11:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24/10/2025 13:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24/10/2025 15:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24/10/2025 17:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24/10/2025 20:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24/10/2025 22:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25/10/2025 01:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25/10/2025 04:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Opinion</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="@"/>
+    <numFmt numFmtId="166" formatCode="0.00"/>
+  </numFmts>
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -139,232 +159,178 @@
     </fill>
   </fills>
   <borders count="3">
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:srgbClr val="ffffff"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="44546a"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="e7e6e6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="5b9bd5"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="ed7d31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="a5a5a5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="ffc000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4472c4"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="70ad47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0563c1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="954f72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204" pitchFamily="0" charset="1"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="0" charset="1"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme>
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
                 <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="50000">
               <a:schemeClr val="phClr">
                 <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
                 <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
                 <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
                 <a:lumMod val="102000"/>
                 <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
                 <a:lumMod val="100000"/>
                 <a:shade val="100000"/>
               </a:schemeClr>
@@ -372,33 +338,24 @@
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
                 <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
         <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
@@ -411,13 +368,7 @@
           <a:effectLst/>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
+          <a:effectLst/>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
@@ -427,15 +378,13 @@
         <a:solidFill>
           <a:schemeClr val="phClr">
             <a:tint val="95000"/>
-            <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:tint val="93000"/>
-                <a:satMod val="150000"/>
                 <a:shade val="98000"/>
                 <a:lumMod val="102000"/>
               </a:schemeClr>
@@ -443,7 +392,6 @@
             <a:gs pos="50000">
               <a:schemeClr val="phClr">
                 <a:tint val="98000"/>
-                <a:satMod val="130000"/>
                 <a:shade val="90000"/>
                 <a:lumMod val="103000"/>
               </a:schemeClr>
@@ -451,37 +399,35 @@
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:shade val="63000"/>
-                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A2:A140 A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16.36328125" bestFit="1" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.36"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -498,390 +444,1259 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="3" t="n">
         <v>721</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="4" t="n">
         <v>870.75</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="4" t="n">
         <v>845.12</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="4" t="n">
         <v>850.2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="3" t="n">
         <v>650</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="4" t="n">
         <v>760.2</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="4" t="n">
         <v>848.1</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="4" t="n">
         <v>889.8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="3" t="n">
         <v>644</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="4" t="n">
         <v>638.4</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="4" t="n">
         <v>749</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="4" t="n">
         <v>682.3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="3" t="n">
         <v>636</v>
       </c>
-      <c r="C5" s="4">
-        <v>552.70000000000005</v>
-      </c>
-      <c r="D5" s="4">
+      <c r="C5" s="4" t="n">
+        <v>552.7</v>
+      </c>
+      <c r="D5" s="4" t="n">
         <v>741</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="4" t="n">
         <v>658.2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="3" t="n">
         <v>649</v>
       </c>
-      <c r="C6" s="4">
-        <v>607.41999999999996</v>
-      </c>
-      <c r="D6" s="4">
+      <c r="C6" s="4" t="n">
+        <v>607.42</v>
+      </c>
+      <c r="D6" s="4" t="n">
         <v>755.4</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="4" t="n">
         <v>670.2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="3" t="n">
         <v>636</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="4" t="n">
         <v>570</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="4" t="n">
         <v>626</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="4" t="n">
         <v>580</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B8" s="3"/>
-      <c r="C8" s="4">
+      <c r="C8" s="4" t="n">
         <v>535</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="4" t="n">
         <v>632</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="4" t="n">
         <v>566</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="3"/>
-      <c r="C9" s="4">
+      <c r="C9" s="4" t="n">
         <v>600</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="4" t="n">
         <v>632</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="4" t="n">
         <v>566</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="3" t="n">
         <v>670</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="4" t="n">
         <v>647</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="4" t="n">
         <v>755</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="4" t="n">
         <v>615.65</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="3" t="n">
         <v>774</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="4" t="n">
         <v>803</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="4" t="n">
         <v>742</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="4" t="n">
         <v>676.5</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="3" t="n">
         <v>770</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="4" t="n">
         <v>656</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="4" t="n">
         <v>742</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="4" t="n">
         <v>798</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="3" t="n">
         <v>746</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="4" t="n">
         <v>680</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="4" t="n">
         <v>748.7</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="4" t="n">
         <v>774.75</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="3" t="n">
         <v>734</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="4" t="n">
         <v>711.45</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="4" t="n">
         <v>761.15</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="4" t="n">
         <v>790.25</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="3" t="n">
         <v>716</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="4" t="n">
         <v>789.2</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="4" t="n">
         <v>782.4</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="4" t="n">
         <v>780</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B16" s="3"/>
-      <c r="C16" s="4">
+      <c r="C16" s="4" t="n">
         <v>808.5</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="4" t="n">
         <v>752</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="4" t="n">
         <v>768</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="3" t="n">
         <v>725</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="4" t="n">
         <v>750.8</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="4" t="n">
         <v>753.6</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E17" s="4" t="n">
         <v>747</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B18" s="3"/>
-      <c r="C18" s="4">
+      <c r="C18" s="4" t="n">
         <v>730</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="4" t="n">
         <v>785</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E18" s="4" t="n">
         <v>745</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19" s="3" t="n">
         <v>805</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="4" t="n">
         <v>699.8</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="4" t="n">
         <v>738.78</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E19" s="4" t="n">
         <v>700.2</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20" s="3" t="n">
         <v>811</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="4" t="n">
         <v>714.78</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20" s="4" t="n">
         <v>662.22</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E20" s="4" t="n">
         <v>697.14</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21" s="3" t="n">
         <v>796</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="4" t="n">
         <v>725.12</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21" s="4" t="n">
         <v>683.73</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E21" s="4" t="n">
         <v>727.42</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B22" s="3" t="n">
         <v>780</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22" s="4" t="n">
         <v>679.9</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D22" s="4" t="n">
         <v>731.26</v>
       </c>
-      <c r="E22" s="4">
+      <c r="E22" s="4" t="n">
         <v>704.27</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B23" s="3" t="n">
         <v>685</v>
       </c>
-      <c r="C23" s="4">
-        <v>626.54999999999995</v>
-      </c>
-      <c r="D23" s="4">
+      <c r="C23" s="4" t="n">
+        <v>626.55</v>
+      </c>
+      <c r="D23" s="4" t="n">
         <v>665</v>
       </c>
-      <c r="E23" s="4">
+      <c r="E23" s="4" t="n">
         <v>686.3</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B24" s="3" t="n">
         <v>674</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C24" s="4" t="n">
         <v>630.15</v>
       </c>
-      <c r="D24" s="4">
+      <c r="D24" s="4" t="n">
         <v>683.25</v>
       </c>
-      <c r="E24" s="4">
+      <c r="E24" s="4" t="n">
         <v>700.55</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:A140"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A120" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:A140"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.16015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="str">
+        <f aca="true">IF(RAND()&gt;=0.5,"yes","no")</f>
+        <v>yes</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="str">
+        <f aca="true">IF(RAND()&gt;=0.5,"yes","no")</f>
+        <v>yes</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="str">
+        <f aca="true">IF(RAND()&gt;=0.5,"yes","no")</f>
+        <v>yes</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="str">
+        <f aca="true">IF(RAND()&gt;=0.5,"yes","no")</f>
+        <v>yes</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="str">
+        <f aca="true">IF(RAND()&gt;=0.5,"yes","no")</f>
+        <v>no</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="str">
+        <f aca="true">IF(RAND()&gt;=0.5,"yes","no")</f>
+        <v>no</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="str">
+        <f aca="true">IF(RAND()&gt;=0.5,"yes","no")</f>
+        <v>no</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="str">
+        <f aca="true">IF(RAND()&gt;=0.5,"yes","no")</f>
+        <v>no</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="str">
+        <f aca="true">IF(RAND()&gt;=0.5,"yes","no")</f>
+        <v>no</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="str">
+        <f aca="true">IF(RAND()&gt;=0.5,"yes","no")</f>
+        <v>no</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="str">
+        <f aca="true">IF(RAND()&gt;=0.5,"yes","no")</f>
+        <v>no</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="str">
+        <f aca="true">IF(RAND()&gt;=0.5,"yes","no")</f>
+        <v>yes</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="str">
+        <f aca="true">IF(RAND()&gt;=0.5,"yes","no")</f>
+        <v>yes</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="str">
+        <f aca="true">IF(RAND()&gt;=0.5,"yes","no")</f>
+        <v>yes</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="str">
+        <f aca="true">IF(RAND()&gt;=0.5,"yes","no")</f>
+        <v>no</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="str">
+        <f aca="true">IF(RAND()&gt;=0.5,"yes","no")</f>
+        <v>yes</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="str">
+        <f aca="true">IF(RAND()&gt;=0.5,"yes","no")</f>
+        <v>no</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="str">
+        <f aca="true">IF(RAND()&gt;=0.5,"yes","no")</f>
+        <v>no</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="str">
+        <f aca="true">IF(RAND()&gt;=0.5,"yes","no")</f>
+        <v>no</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="str">
+        <f aca="true">IF(RAND()&gt;=0.5,"yes","no")</f>
+        <v>yes</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="str">
+        <f aca="true">IF(RAND()&gt;=0.5,"yes","no")</f>
+        <v>yes</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="str">
+        <f aca="true">IF(RAND()&gt;=0.5,"yes","no")</f>
+        <v>yes</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="str">
+        <f aca="true">IF(RAND()&gt;=0.5,"yes","no")</f>
+        <v>yes</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="str">
+        <f aca="true">IF(RAND()&gt;=0.5,"yes","no")</f>
+        <v>yes</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="str">
+        <f aca="true">IF(RAND()&gt;=0.5,"yes","no")</f>
+        <v>no</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="str">
+        <f aca="true">IF(RAND()&gt;=0.5,"yes","no")</f>
+        <v>yes</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="str">
+        <f aca="true">IF(RAND()&gt;=0.5,"yes","no")</f>
+        <v>yes</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="str">
+        <f aca="true">IF(RAND()&gt;=0.5,"yes","no")</f>
+        <v>yes</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="str">
+        <f aca="true">IF(RAND()&gt;=0.5,"yes","no")</f>
+        <v>yes</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="str">
+        <f aca="true">IF(RAND()&gt;=0.5,"yes","no")</f>
+        <v>yes</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="str">
+        <f aca="true">IF(RAND()&gt;=0.5,"yes","no")</f>
+        <v>no</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="str">
+        <f aca="true">IF(RAND()&gt;=0.5,"yes","no")</f>
+        <v>yes</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="str">
+        <f aca="true">IF(RAND()&gt;=0.5,"yes","no")</f>
+        <v>no</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="str">
+        <f aca="true">IF(RAND()&gt;=0.5,"yes","no")</f>
+        <v>no</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="str">
+        <f aca="true">IF(RAND()&gt;=0.5,"yes","no")</f>
+        <v>no</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="str">
+        <f aca="true">IF(RAND()&gt;=0.5,"yes","no")</f>
+        <v>no</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="str">
+        <f aca="true">IF(RAND()&gt;=0.5,"yes","no")</f>
+        <v>no</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="str">
+        <f aca="true">IF(RAND()&gt;=0.5,"yes","no")</f>
+        <v>no</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="str">
+        <f aca="true">IF(RAND()&gt;=0.5,"yes","no")</f>
+        <v>no</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="str">
+        <f aca="true">IF(RAND()&gt;=0.5,"yes","no")</f>
+        <v>yes</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="str">
+        <f aca="true">IF(RAND()&gt;=0.5,"yes","no")</f>
+        <v>yes</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="str">
+        <f aca="true">IF(RAND()&gt;=0.5,"yes","no")</f>
+        <v>no</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="str">
+        <f aca="true">IF(RAND()&gt;=0.5,"yes","no")</f>
+        <v>yes</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="str">
+        <f aca="true">IF(RAND()&gt;=0.5,"yes","no")</f>
+        <v>yes</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="str">
+        <f aca="true">IF(RAND()&gt;=0.5,"yes","no")</f>
+        <v>no</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="str">
+        <f aca="true">IF(RAND()&gt;=0.5,"yes","no")</f>
+        <v>no</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="str">
+        <f aca="true">IF(RAND()&gt;=0.5,"yes","no")</f>
+        <v>yes</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="str">
+        <f aca="true">IF(RAND()&gt;=0.5,"yes","no")</f>
+        <v>no</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="str">
+        <f aca="true">IF(RAND()&gt;=0.5,"yes","no")</f>
+        <v>yes</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="str">
+        <f aca="true">IF(RAND()&gt;=0.5,"yes","no")</f>
+        <v>no</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0" t="str">
+        <f aca="true">IF(RAND()&gt;=0.5,"yes","no")</f>
+        <v>no</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0" t="str">
+        <f aca="true">IF(RAND()&gt;=0.5,"yes","no")</f>
+        <v>yes</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="0" t="str">
+        <f aca="true">IF(RAND()&gt;=0.5,"yes","no")</f>
+        <v>yes</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="0" t="str">
+        <f aca="true">IF(RAND()&gt;=0.5,"yes","no")</f>
+        <v>yes</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="0" t="str">
+        <f aca="true">IF(RAND()&gt;=0.5,"yes","no")</f>
+        <v>no</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="0" t="str">
+        <f aca="true">IF(RAND()&gt;=0.5,"yes","no")</f>
+        <v>no</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="0" t="str">
+        <f aca="true">IF(RAND()&gt;=0.5,"yes","no")</f>
+        <v>yes</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="0" t="str">
+        <f aca="true">IF(RAND()&gt;=0.5,"yes","no")</f>
+        <v>yes</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="0" t="str">
+        <f aca="true">IF(RAND()&gt;=0.5,"yes","no")</f>
+        <v>yes</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="0" t="str">
+        <f aca="true">IF(RAND()&gt;=0.5,"yes","no")</f>
+        <v>yes</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="0" t="str">
+        <f aca="true">IF(RAND()&gt;=0.5,"yes","no")</f>
+        <v>no</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="0" t="str">
+        <f aca="true">IF(RAND()&gt;=0.5,"yes","no")</f>
+        <v>yes</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="0" t="str">
+        <f aca="true">IF(RAND()&gt;=0.5,"yes","no")</f>
+        <v>yes</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="0" t="str">
+        <f aca="true">IF(RAND()&gt;=0.5,"yes","no")</f>
+        <v>yes</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="0" t="str">
+        <f aca="true">IF(RAND()&gt;=0.5,"yes","no")</f>
+        <v>no</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="0" t="str">
+        <f aca="true">IF(RAND()&gt;=0.5,"yes","no")</f>
+        <v>no</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="0" t="str">
+        <f aca="true">IF(RAND()&gt;=0.5,"yes","no")</f>
+        <v>no</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="0" t="str">
+        <f aca="true">IF(RAND()&gt;=0.5,"yes","no")</f>
+        <v>no</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="0" t="str">
+        <f aca="true">IF(RAND()&gt;=0.5,"yes","no")</f>
+        <v>yes</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="0" t="str">
+        <f aca="true">IF(RAND()&gt;=0.5,"yes","no")</f>
+        <v>no</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="0" t="str">
+        <f aca="true">IF(RAND()&gt;=0.5,"yes","no")</f>
+        <v>no</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="0" t="str">
+        <f aca="true">IF(RAND()&gt;=0.5,"yes","no")</f>
+        <v>no</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="0" t="str">
+        <f aca="true">IF(RAND()&gt;=0.5,"yes","no")</f>
+        <v>no</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="0" t="str">
+        <f aca="true">IF(RAND()&gt;=0.5,"yes","no")</f>
+        <v>yes</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="0" t="str">
+        <f aca="true">IF(RAND()&gt;=0.5,"yes","no")</f>
+        <v>yes</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="0" t="str">
+        <f aca="true">IF(RAND()&gt;=0.5,"yes","no")</f>
+        <v>no</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="0" t="str">
+        <f aca="true">IF(RAND()&gt;=0.5,"yes","no")</f>
+        <v>yes</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="0" t="str">
+        <f aca="true">IF(RAND()&gt;=0.5,"yes","no")</f>
+        <v>yes</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="0" t="str">
+        <f aca="true">IF(RAND()&gt;=0.5,"yes","no")</f>
+        <v>no</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="0" t="str">
+        <f aca="true">IF(RAND()&gt;=0.5,"yes","no")</f>
+        <v>yes</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="0" t="str">
+        <f aca="true">IF(RAND()&gt;=0.5,"yes","no")</f>
+        <v>no</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="0" t="str">
+        <f aca="true">IF(RAND()&gt;=0.5,"yes","no")</f>
+        <v>no</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="0" t="str">
+        <f aca="true">IF(RAND()&gt;=0.5,"yes","no")</f>
+        <v>yes</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="0" t="str">
+        <f aca="true">IF(RAND()&gt;=0.5,"yes","no")</f>
+        <v>yes</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="0" t="str">
+        <f aca="true">IF(RAND()&gt;=0.5,"yes","no")</f>
+        <v>yes</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="0" t="str">
+        <f aca="true">IF(RAND()&gt;=0.5,"yes","no")</f>
+        <v>yes</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="0" t="str">
+        <f aca="true">IF(RAND()&gt;=0.5,"yes","no")</f>
+        <v>no</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="0" t="str">
+        <f aca="true">IF(RAND()&gt;=0.5,"yes","no")</f>
+        <v>yes</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="0" t="str">
+        <f aca="true">IF(RAND()&gt;=0.5,"yes","no")</f>
+        <v>yes</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="0" t="str">
+        <f aca="true">IF(RAND()&gt;=0.5,"yes","no")</f>
+        <v>yes</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="0" t="str">
+        <f aca="true">IF(RAND()&gt;=0.5,"yes","no")</f>
+        <v>no</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="0" t="str">
+        <f aca="true">IF(RAND()&gt;=0.5,"yes","no")</f>
+        <v>no</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="0" t="str">
+        <f aca="true">IF(RAND()&gt;=0.5,"yes","no")</f>
+        <v>yes</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="0" t="str">
+        <f aca="true">IF(RAND()&gt;=0.5,"yes","no")</f>
+        <v>no</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="0" t="str">
+        <f aca="true">IF(RAND()&gt;=0.5,"yes","no")</f>
+        <v>yes</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="0" t="str">
+        <f aca="true">IF(RAND()&gt;=0.5,"yes","no")</f>
+        <v>yes</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="0" t="str">
+        <f aca="true">IF(RAND()&gt;=0.5,"yes","no")</f>
+        <v>yes</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="0" t="str">
+        <f aca="true">IF(RAND()&gt;=0.5,"yes","no")</f>
+        <v>no</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="0" t="str">
+        <f aca="true">IF(RAND()&gt;=0.5,"yes","no")</f>
+        <v>no</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="0" t="str">
+        <f aca="true">IF(RAND()&gt;=0.5,"yes","no")</f>
+        <v>yes</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="0" t="str">
+        <f aca="true">IF(RAND()&gt;=0.5,"yes","no")</f>
+        <v>no</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="0" t="str">
+        <f aca="true">IF(RAND()&gt;=0.5,"yes","no")</f>
+        <v>yes</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="0" t="str">
+        <f aca="true">IF(RAND()&gt;=0.5,"yes","no")</f>
+        <v>no</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="0" t="str">
+        <f aca="true">IF(RAND()&gt;=0.5,"yes","no")</f>
+        <v>no</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="0" t="str">
+        <f aca="true">IF(RAND()&gt;=0.5,"yes","no")</f>
+        <v>no</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="0" t="str">
+        <f aca="true">IF(RAND()&gt;=0.5,"yes","no")</f>
+        <v>no</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="0" t="str">
+        <f aca="true">IF(RAND()&gt;=0.5,"yes","no")</f>
+        <v>yes</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="0" t="str">
+        <f aca="true">IF(RAND()&gt;=0.5,"yes","no")</f>
+        <v>yes</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="0" t="str">
+        <f aca="true">IF(RAND()&gt;=0.5,"yes","no")</f>
+        <v>yes</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="0" t="str">
+        <f aca="true">IF(RAND()&gt;=0.5,"yes","no")</f>
+        <v>no</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="0" t="str">
+        <f aca="true">IF(RAND()&gt;=0.5,"yes","no")</f>
+        <v>no</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="0" t="str">
+        <f aca="true">IF(RAND()&gt;=0.5,"yes","no")</f>
+        <v>no</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="0" t="str">
+        <f aca="true">IF(RAND()&gt;=0.5,"yes","no")</f>
+        <v>no</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="0" t="str">
+        <f aca="true">IF(RAND()&gt;=0.5,"yes","no")</f>
+        <v>yes</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="0" t="str">
+        <f aca="true">IF(RAND()&gt;=0.5,"yes","no")</f>
+        <v>no</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="0" t="str">
+        <f aca="true">IF(RAND()&gt;=0.5,"yes","no")</f>
+        <v>no</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="0" t="str">
+        <f aca="true">IF(RAND()&gt;=0.5,"yes","no")</f>
+        <v>no</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="0" t="str">
+        <f aca="true">IF(RAND()&gt;=0.5,"yes","no")</f>
+        <v>no</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="0" t="str">
+        <f aca="true">IF(RAND()&gt;=0.5,"yes","no")</f>
+        <v>no</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="0" t="str">
+        <f aca="true">IF(RAND()&gt;=0.5,"yes","no")</f>
+        <v>yes</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="0" t="str">
+        <f aca="true">IF(RAND()&gt;=0.5,"yes","no")</f>
+        <v>yes</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="0" t="str">
+        <f aca="true">IF(RAND()&gt;=0.5,"yes","no")</f>
+        <v>no</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="0" t="str">
+        <f aca="true">IF(RAND()&gt;=0.5,"yes","no")</f>
+        <v>no</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="0" t="str">
+        <f aca="true">IF(RAND()&gt;=0.5,"yes","no")</f>
+        <v>yes</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="0" t="str">
+        <f aca="true">IF(RAND()&gt;=0.5,"yes","no")</f>
+        <v>no</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="0" t="str">
+        <f aca="true">IF(RAND()&gt;=0.5,"yes","no")</f>
+        <v>yes</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="0" t="str">
+        <f aca="true">IF(RAND()&gt;=0.5,"yes","no")</f>
+        <v>yes</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="0" t="str">
+        <f aca="true">IF(RAND()&gt;=0.5,"yes","no")</f>
+        <v>yes</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="0" t="str">
+        <f aca="true">IF(RAND()&gt;=0.5,"yes","no")</f>
+        <v>no</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="0" t="str">
+        <f aca="true">IF(RAND()&gt;=0.5,"yes","no")</f>
+        <v>yes</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="0" t="str">
+        <f aca="true">IF(RAND()&gt;=0.5,"yes","no")</f>
+        <v>yes</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="0" t="str">
+        <f aca="true">IF(RAND()&gt;=0.5,"yes","no")</f>
+        <v>no</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="0" t="str">
+        <f aca="true">IF(RAND()&gt;=0.5,"yes","no")</f>
+        <v>no</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="0" t="str">
+        <f aca="true">IF(RAND()&gt;=0.5,"yes","no")</f>
+        <v>no</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="0" t="str">
+        <f aca="true">IF(RAND()&gt;=0.5,"yes","no")</f>
+        <v>no</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="0" t="str">
+        <f aca="true">IF(RAND()&gt;=0.5,"yes","no")</f>
+        <v>no</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="0" t="str">
+        <f aca="true">IF(RAND()&gt;=0.5,"yes","no")</f>
+        <v>yes</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="0" t="str">
+        <f aca="true">IF(RAND()&gt;=0.5,"yes","no")</f>
+        <v>yes</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="0" t="str">
+        <f aca="true">IF(RAND()&gt;=0.5,"yes","no")</f>
+        <v>no</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>